--- a/biology/Zoologie/Eristalis_arbustorum/Eristalis_arbustorum.xlsx
+++ b/biology/Zoologie/Eristalis_arbustorum/Eristalis_arbustorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eristalis arbustorum, l'éristale des arbustes, est une espèce d'insecte diptère du sous-ordre des Brachycera (les Brachycera sont des mouches muscoïdes aux antennes courtes), de la famille des Syrphidae.
 Plus petite que l'éristale gluante (Eristalis tenax), que l'éristale opiniâtre (Eristalis pertinax), on peut observer les imagos d'avril à octobre, butinant les fleurs dans les endroits ensoleillés.
